--- a/QuizAppUsecases.xlsx
+++ b/QuizAppUsecases.xlsx
@@ -190,9 +190,6 @@
     <t>Good internet connection to access the hematite server</t>
   </si>
   <si>
-    <t xml:space="preserve">student must have proper network connection and valid email address to access the hematite server </t>
-  </si>
-  <si>
     <t>Post-Conditions</t>
   </si>
   <si>
@@ -287,6 +284,9 @@
   </si>
   <si>
     <t>The system stores test completion data.</t>
+  </si>
+  <si>
+    <t>student must have proper network connection and valid email address to access the hematite server.</t>
   </si>
 </sst>
 </file>
@@ -745,16 +745,29 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -772,19 +785,6 @@
     <xf numFmtId="0" fontId="13" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1012,13 +1012,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="37"/>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="42"/>
       <c r="F1" s="1"/>
     </row>
     <row r="2" spans="1:6" ht="14.25" customHeight="1">
@@ -2097,8 +2097,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B1021"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="B85" sqref="B85"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="B45" sqref="B45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -2141,46 +2141,46 @@
       </c>
     </row>
     <row r="5" spans="1:2" ht="14.25" customHeight="1">
-      <c r="A5" s="38" t="s">
+      <c r="A5" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="39"/>
+      <c r="B5" s="44"/>
     </row>
     <row r="6" spans="1:2" ht="14.25" customHeight="1">
-      <c r="A6" s="40" t="s">
+      <c r="A6" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="39"/>
+      <c r="B6" s="44"/>
     </row>
     <row r="7" spans="1:2" ht="14.25" customHeight="1">
-      <c r="A7" s="41" t="s">
+      <c r="A7" s="46" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="39"/>
+      <c r="B7" s="44"/>
     </row>
     <row r="8" spans="1:2" ht="14.25" customHeight="1">
-      <c r="A8" s="41" t="s">
+      <c r="A8" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="39"/>
+      <c r="B8" s="44"/>
     </row>
     <row r="9" spans="1:2" ht="14.25" customHeight="1">
-      <c r="A9" s="41" t="s">
+      <c r="A9" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="39"/>
+      <c r="B9" s="44"/>
     </row>
     <row r="10" spans="1:2" ht="14.25" customHeight="1">
-      <c r="A10" s="41" t="s">
+      <c r="A10" s="46" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="39"/>
+      <c r="B10" s="44"/>
     </row>
     <row r="11" spans="1:2" ht="14.25" customHeight="1">
-      <c r="A11" s="38" t="s">
+      <c r="A11" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="39"/>
+      <c r="B11" s="44"/>
     </row>
     <row r="12" spans="1:2" ht="14.25" customHeight="1">
       <c r="A12" s="16"/>
@@ -2189,184 +2189,184 @@
       </c>
     </row>
     <row r="13" spans="1:2" ht="14.25" customHeight="1">
-      <c r="A13" s="42"/>
+      <c r="A13" s="47"/>
       <c r="B13" s="18" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="14.25" customHeight="1">
-      <c r="A14" s="43"/>
+      <c r="A14" s="48"/>
       <c r="B14" s="17" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="14.25" customHeight="1">
-      <c r="A15" s="43"/>
+      <c r="A15" s="48"/>
       <c r="B15" s="18" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="14.25" customHeight="1">
-      <c r="A16" s="43"/>
+      <c r="A16" s="48"/>
       <c r="B16" s="17" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="14.25" customHeight="1">
-      <c r="A17" s="43"/>
+      <c r="A17" s="48"/>
       <c r="B17" s="18" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="14.25" customHeight="1">
-      <c r="A18" s="43"/>
+      <c r="A18" s="48"/>
       <c r="B18" s="17" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="14.25" customHeight="1">
-      <c r="A19" s="43"/>
+      <c r="A19" s="48"/>
       <c r="B19" s="18" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="14.25" customHeight="1">
-      <c r="A20" s="43"/>
+      <c r="A20" s="48"/>
       <c r="B20" s="17" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="13.5" customHeight="1">
-      <c r="A21" s="43"/>
+      <c r="A21" s="48"/>
       <c r="B21" s="18" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="14.25" customHeight="1">
-      <c r="A22" s="43"/>
+      <c r="A22" s="48"/>
       <c r="B22" s="19" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="14.25" customHeight="1">
-      <c r="A23" s="43"/>
+      <c r="A23" s="48"/>
       <c r="B23" s="20" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="14.25" customHeight="1">
-      <c r="A24" s="43"/>
+      <c r="A24" s="48"/>
       <c r="B24" s="21" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="14.25" customHeight="1">
-      <c r="A25" s="43"/>
+      <c r="A25" s="48"/>
       <c r="B25" s="18" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="14.25" customHeight="1">
-      <c r="A26" s="43"/>
+      <c r="A26" s="48"/>
       <c r="B26" s="21" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="14.25" customHeight="1">
-      <c r="A27" s="43"/>
+      <c r="A27" s="48"/>
       <c r="B27" s="18" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="14.25" customHeight="1">
-      <c r="A28" s="43"/>
+      <c r="A28" s="48"/>
       <c r="B28" s="21" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="14.25" customHeight="1">
-      <c r="A29" s="43"/>
+      <c r="A29" s="48"/>
       <c r="B29" s="18" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="14.25" customHeight="1">
-      <c r="A30" s="43"/>
+      <c r="A30" s="48"/>
       <c r="B30" s="21" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="14.25" customHeight="1">
-      <c r="A31" s="43"/>
+      <c r="A31" s="48"/>
       <c r="B31" s="18" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="14.25" customHeight="1">
-      <c r="A32" s="43"/>
+      <c r="A32" s="48"/>
       <c r="B32" s="22" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="14.25" customHeight="1">
-      <c r="A33" s="43"/>
+      <c r="A33" s="48"/>
       <c r="B33" s="14" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="14.25" customHeight="1">
-      <c r="A34" s="43"/>
+      <c r="A34" s="48"/>
       <c r="B34" s="21" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A35" s="43"/>
+      <c r="A35" s="48"/>
       <c r="B35" s="18" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A36" s="43"/>
+      <c r="A36" s="48"/>
       <c r="B36" s="21" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A37" s="43"/>
+      <c r="A37" s="48"/>
       <c r="B37" s="18" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A38" s="43"/>
+      <c r="A38" s="48"/>
       <c r="B38" s="21" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A39" s="43"/>
+      <c r="A39" s="48"/>
       <c r="B39" s="18" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A40" s="43"/>
+      <c r="A40" s="48"/>
       <c r="B40" s="21" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A41" s="44"/>
+      <c r="A41" s="49"/>
       <c r="B41" s="18" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A42" s="38" t="s">
+      <c r="A42" s="45" t="s">
         <v>52</v>
       </c>
-      <c r="B42" s="39"/>
+      <c r="B42" s="44"/>
     </row>
     <row r="43" spans="1:2" ht="15.75" customHeight="1">
       <c r="A43" s="23"/>
@@ -2381,19 +2381,19 @@
     <row r="45" spans="1:2" ht="15.75" customHeight="1">
       <c r="A45" s="23"/>
       <c r="B45" s="26" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A46" s="45" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="46" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A46" s="38" t="s">
-        <v>55</v>
-      </c>
-      <c r="B46" s="39"/>
+      <c r="B46" s="44"/>
     </row>
     <row r="47" spans="1:2" ht="15.75" customHeight="1">
       <c r="A47" s="23"/>
       <c r="B47" s="14" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="15.75" customHeight="1">
@@ -2403,7 +2403,7 @@
     <row r="49" spans="1:2" ht="15.75" customHeight="1">
       <c r="A49" s="23"/>
       <c r="B49" s="14" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="15.75" customHeight="1">
@@ -2411,20 +2411,20 @@
       <c r="B50" s="23"/>
     </row>
     <row r="51" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A51" s="38" t="s">
+      <c r="A51" s="45" t="s">
+        <v>57</v>
+      </c>
+      <c r="B51" s="44"/>
+    </row>
+    <row r="52" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A52" s="43" t="s">
         <v>58</v>
       </c>
-      <c r="B51" s="39"/>
-    </row>
-    <row r="52" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A52" s="40" t="s">
-        <v>59</v>
-      </c>
-      <c r="B52" s="39"/>
+      <c r="B52" s="44"/>
     </row>
     <row r="53" spans="1:2" ht="15.75" customHeight="1">
       <c r="A53" s="27" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B53" s="28"/>
     </row>
@@ -2437,15 +2437,15 @@
         <v>7</v>
       </c>
       <c r="B55" s="23" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="56" spans="1:2" ht="15.75" customHeight="1">
       <c r="A56" s="13" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B56" s="23" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="57" spans="1:2" ht="15.75" customHeight="1">
@@ -2453,7 +2453,7 @@
         <v>11</v>
       </c>
       <c r="B57" s="23" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="58" spans="1:2" ht="15.75" customHeight="1">
@@ -2465,172 +2465,172 @@
       </c>
     </row>
     <row r="59" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A59" s="38" t="s">
+      <c r="A59" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="B59" s="39"/>
+      <c r="B59" s="44"/>
     </row>
     <row r="60" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A60" s="40" t="s">
+      <c r="A60" s="43" t="s">
+        <v>67</v>
+      </c>
+      <c r="B60" s="44"/>
+    </row>
+    <row r="61" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A61" s="46" t="s">
         <v>68</v>
       </c>
-      <c r="B60" s="39"/>
-    </row>
-    <row r="61" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A61" s="41" t="s">
+      <c r="B61" s="44"/>
+    </row>
+    <row r="62" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A62" s="46" t="s">
         <v>69</v>
       </c>
-      <c r="B61" s="39"/>
-    </row>
-    <row r="62" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A62" s="41" t="s">
+      <c r="B62" s="44"/>
+    </row>
+    <row r="63" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A63" s="46" t="s">
         <v>70</v>
       </c>
-      <c r="B62" s="39"/>
-    </row>
-    <row r="63" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A63" s="41" t="s">
+      <c r="B63" s="44"/>
+    </row>
+    <row r="64" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A64" s="50" t="s">
         <v>71</v>
       </c>
-      <c r="B63" s="39"/>
-    </row>
-    <row r="64" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A64" s="45" t="s">
+      <c r="B64" s="51"/>
+    </row>
+    <row r="65" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A65" s="52" t="s">
         <v>72</v>
       </c>
-      <c r="B64" s="46"/>
-    </row>
-    <row r="65" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A65" s="47" t="s">
-        <v>73</v>
-      </c>
-      <c r="B65" s="39"/>
+      <c r="B65" s="44"/>
     </row>
     <row r="66" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A66" s="38" t="s">
+      <c r="A66" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="B66" s="39"/>
+      <c r="B66" s="44"/>
     </row>
     <row r="67" spans="1:2" ht="15.75" customHeight="1">
       <c r="A67" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="B67" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="B67" s="15" t="s">
-        <v>63</v>
-      </c>
     </row>
     <row r="68" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A68" s="48"/>
-      <c r="B68" s="51" t="s">
+      <c r="A68" s="35"/>
+      <c r="B68" s="38" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A69" s="47"/>
+      <c r="B69" s="23" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="69" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A69" s="42"/>
-      <c r="B69" s="23" t="s">
+    <row r="70" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A70" s="48"/>
+      <c r="B70" s="31"/>
+    </row>
+    <row r="71" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A71" s="48"/>
+      <c r="B71" s="37" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="70" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A70" s="43"/>
-      <c r="B70" s="31"/>
-    </row>
-    <row r="71" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A71" s="43"/>
-      <c r="B71" s="50" t="s">
+    <row r="72" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A72" s="48"/>
+      <c r="B72" s="36" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="72" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A72" s="43"/>
-      <c r="B72" s="49" t="s">
+    <row r="73" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A73" s="48"/>
+      <c r="B73" s="31"/>
+    </row>
+    <row r="74" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A74" s="48"/>
+      <c r="B74" s="37" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="73" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A73" s="43"/>
-      <c r="B73" s="31"/>
-    </row>
-    <row r="74" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A74" s="43"/>
-      <c r="B74" s="50" t="s">
+    <row r="75" spans="1:2" ht="36.75" customHeight="1">
+      <c r="A75" s="48"/>
+      <c r="B75" s="36" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="75" spans="1:2" ht="36.75" customHeight="1">
-      <c r="A75" s="43"/>
-      <c r="B75" s="49" t="s">
+    <row r="76" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A76" s="48"/>
+      <c r="B76" s="23"/>
+    </row>
+    <row r="77" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A77" s="48"/>
+      <c r="B77" s="37" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="76" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A76" s="43"/>
-      <c r="B76" s="23"/>
-    </row>
-    <row r="77" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A77" s="43"/>
-      <c r="B77" s="50" t="s">
+    <row r="78" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A78" s="48"/>
+      <c r="B78" s="36" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="78" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A78" s="43"/>
-      <c r="B78" s="49" t="s">
-        <v>81</v>
-      </c>
-    </row>
     <row r="79" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A79" s="43"/>
+      <c r="A79" s="48"/>
       <c r="B79" s="31"/>
     </row>
     <row r="80" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A80" s="44"/>
+      <c r="A80" s="49"/>
       <c r="B80" s="31"/>
     </row>
     <row r="81" spans="1:2" ht="15.75" customHeight="1">
       <c r="A81" s="33" t="s">
         <v>52</v>
       </c>
-      <c r="B81" s="49" t="s">
-        <v>82</v>
+      <c r="B81" s="36" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="82" spans="1:2" ht="15.75" customHeight="1">
       <c r="A82" s="23"/>
-      <c r="B82" s="52" t="s">
-        <v>83</v>
+      <c r="B82" s="39" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="83" spans="1:2" ht="15.75" customHeight="1">
       <c r="A83" s="33" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B83" s="23" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="84" spans="1:2" ht="15.75" customHeight="1">
       <c r="A84" s="23"/>
       <c r="B84" s="32" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="85" spans="1:2" ht="15.75" customHeight="1">
       <c r="A85" s="23"/>
       <c r="B85" s="23" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="86" spans="1:2" ht="15.75" customHeight="1">
       <c r="A86" s="33" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B86" s="23"/>
     </row>
     <row r="87" spans="1:2" ht="15.75" customHeight="1">
       <c r="A87" s="34" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B87" s="32"/>
     </row>
@@ -3572,12 +3572,13 @@
     <row r="1021" ht="14.25" customHeight="1"/>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="A60:B60"/>
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="A51:B51"/>
-    <mergeCell ref="A52:B52"/>
-    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="A66:B66"/>
+    <mergeCell ref="A69:A80"/>
+    <mergeCell ref="A61:B61"/>
+    <mergeCell ref="A62:B62"/>
+    <mergeCell ref="A63:B63"/>
+    <mergeCell ref="A64:B64"/>
+    <mergeCell ref="A65:B65"/>
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="A7:B7"/>
@@ -3586,13 +3587,12 @@
     <mergeCell ref="A9:B9"/>
     <mergeCell ref="A10:B10"/>
     <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A61:B61"/>
-    <mergeCell ref="A62:B62"/>
-    <mergeCell ref="A63:B63"/>
-    <mergeCell ref="A64:B64"/>
-    <mergeCell ref="A65:B65"/>
-    <mergeCell ref="A66:B66"/>
-    <mergeCell ref="A69:A80"/>
+    <mergeCell ref="A60:B60"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="A59:B59"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
